--- a/ProjectISM/dataset/employee.xlsx
+++ b/ProjectISM/dataset/employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="205">
   <si>
     <t>Employee ID</t>
   </si>
@@ -608,12 +608,6 @@
   </si>
   <si>
     <t>Thành phố 18</t>
-  </si>
-  <si>
-    <t>U222</t>
-  </si>
-  <si>
-    <t>Nhân Viên 2</t>
   </si>
   <si>
     <t>U27</t>
@@ -975,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1856,16 +1850,16 @@
         <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -1874,42 +1868,10 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="J28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>205</v>
-      </c>
-      <c r="J29" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectISM/dataset/employee.xlsx
+++ b/ProjectISM/dataset/employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="207">
   <si>
     <t>Employee ID</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>Thành phố 18</t>
+  </si>
+  <si>
+    <t>U222</t>
+  </si>
+  <si>
+    <t>Nhân Viên 2</t>
   </si>
   <si>
     <t>U27</t>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1850,16 +1856,16 @@
         <v>199</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -1868,10 +1874,42 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
         <v>203</v>
       </c>
-      <c r="J28" t="s">
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
         <v>204</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
